--- a/clinical_data/GCS_table.xlsx
+++ b/clinical_data/GCS_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejohnshopkins-my.sharepoint.com/personal/sbhatt15_jh_edu/Documents/NIMS Project/nims/clinical_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{EEC4C70C-AC6D-4132-A46B-7B66FF4393FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2CC6169F-7B31-4E7E-9655-679042DC681E}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{EEC4C70C-AC6D-4132-A46B-7B66FF4393FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{95DF526E-DCCE-4E72-BF32-1D0E99929F79}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1855</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -613,7 +613,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -672,7 +672,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -702,7 +702,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -732,7 +732,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -762,7 +762,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -792,7 +792,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -822,7 +822,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -881,7 +881,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -911,7 +911,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -971,7 +971,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0.59375</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>0.3923611111111111</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>0.44097222222222227</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>6</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>6</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>6</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>7</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>8</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>8</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>9</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>9</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>9</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>9</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>9</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>9</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>10</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>10</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>10</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>10</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>10</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>10</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>10</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>10</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>10</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>10</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>10</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>10</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>11</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>11</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>11</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>11</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>11</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>0.3972222222222222</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>11</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>11</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>11</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>11</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>11</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>12</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>12</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>13</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>13</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>13</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>13</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>13</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>13</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>14</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>14</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>14</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>14</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>14</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>14</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>15</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>15</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>15</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>15</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>15</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>15</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>15</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>15</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>15</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>15</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>15</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>15</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>15</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>16</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>16</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>16</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>0.15972222222222224</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>16</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>16</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>16</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>16</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>16</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>16</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>16</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>16</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>16</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>17</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>17</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>0.82291666666666663</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>17</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>17</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>17</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>17</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>17</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>17</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>19</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>19</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>19</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>19</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>19</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>19</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>19</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>19</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>19</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>19</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>0.20138888888888887</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>19</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>19</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>19</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>19</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>20</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>20</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>20</v>
       </c>
@@ -14430,7 +14430,7 @@
         <v>0.84861111111111109</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>20</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>0.9458333333333333</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>20</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>0.98055555555555562</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>20</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>20</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>0.13263888888888889</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>20</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>20</v>
       </c>
@@ -14610,7 +14610,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>20</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>21</v>
       </c>
@@ -14849,7 +14849,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>21</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>21</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>21</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>21</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>21</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>21</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>21</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>21</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>21</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>21</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>21</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>22</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>22</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v>0.84722222222222221</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>22</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>22</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>22</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>22</v>
       </c>
@@ -16046,7 +16046,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>22</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>22</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>22</v>
       </c>
@@ -16136,7 +16136,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>22</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>23</v>
       </c>
@@ -16584,7 +16584,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>23</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>23</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>23</v>
       </c>
@@ -17212,7 +17212,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>24</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>24</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>24</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>24</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>24</v>
       </c>
@@ -17361,7 +17361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>24</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>24</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>24</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>24</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>24</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>24</v>
       </c>
@@ -18259,7 +18259,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>26</v>
       </c>
@@ -18289,7 +18289,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>26</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>26</v>
       </c>
@@ -18349,7 +18349,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>26</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>26</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>26</v>
       </c>
@@ -18439,7 +18439,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>26</v>
       </c>
@@ -18469,7 +18469,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>26</v>
       </c>
@@ -18829,7 +18829,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>27</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>27</v>
       </c>
@@ -18889,7 +18889,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>27</v>
       </c>
@@ -18919,7 +18919,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>27</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>27</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>27</v>
       </c>
@@ -19008,7 +19008,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>27</v>
       </c>
@@ -19038,7 +19038,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>27</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>27</v>
       </c>
@@ -19486,7 +19486,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>28</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>28</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>28</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>28</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>28</v>
       </c>
@@ -19635,7 +19635,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>28</v>
       </c>
@@ -19665,7 +19665,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>28</v>
       </c>
@@ -20053,7 +20053,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>29</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>29</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>29</v>
       </c>
@@ -20142,7 +20142,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>29</v>
       </c>
@@ -20172,7 +20172,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>29</v>
       </c>
@@ -20202,7 +20202,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>29</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>30</v>
       </c>
@@ -20651,7 +20651,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>30</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>30</v>
       </c>
@@ -20711,7 +20711,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>30</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>30</v>
       </c>
@@ -20771,7 +20771,7 @@
         <v>0.61111111111111105</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>30</v>
       </c>
@@ -21549,7 +21549,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>31</v>
       </c>
@@ -21579,7 +21579,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>31</v>
       </c>
@@ -21608,7 +21608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>31</v>
       </c>
@@ -21638,7 +21638,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>31</v>
       </c>
@@ -21668,7 +21668,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>31</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>31</v>
       </c>
@@ -21728,7 +21728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>31</v>
       </c>
@@ -21758,7 +21758,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>31</v>
       </c>
@@ -21788,7 +21788,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>31</v>
       </c>
@@ -21818,7 +21818,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>31</v>
       </c>
@@ -23374,7 +23374,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>32</v>
       </c>
@@ -23404,7 +23404,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>32</v>
       </c>
@@ -23434,7 +23434,7 @@
         <v>0.74097222222222225</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>32</v>
       </c>
@@ -23464,7 +23464,7 @@
         <v>0.78680555555555554</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>32</v>
       </c>
@@ -23494,7 +23494,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>32</v>
       </c>
@@ -23524,7 +23524,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>32</v>
       </c>
@@ -23554,7 +23554,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>32</v>
       </c>
@@ -23583,7 +23583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>32</v>
       </c>
@@ -23613,7 +23613,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>32</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>32</v>
       </c>
@@ -23673,7 +23673,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>32</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>32</v>
       </c>
@@ -23733,7 +23733,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>32</v>
       </c>
@@ -23763,7 +23763,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>32</v>
       </c>
@@ -24302,7 +24302,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>33</v>
       </c>
@@ -24332,7 +24332,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>33</v>
       </c>
@@ -24362,7 +24362,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>33</v>
       </c>
@@ -24392,7 +24392,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>33</v>
       </c>
@@ -25081,7 +25081,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>34</v>
       </c>
@@ -25111,7 +25111,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>34</v>
       </c>
@@ -25141,7 +25141,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>34</v>
       </c>
@@ -25171,7 +25171,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>34</v>
       </c>
@@ -25200,7 +25200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>34</v>
       </c>
@@ -25230,7 +25230,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>34</v>
       </c>
@@ -25260,7 +25260,7 @@
         <v>0.23263888888888887</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>34</v>
       </c>
@@ -25290,7 +25290,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>34</v>
       </c>
@@ -25320,7 +25320,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>34</v>
       </c>
@@ -25350,7 +25350,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>34</v>
       </c>
@@ -26187,7 +26187,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>35</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>35</v>
       </c>
@@ -26247,7 +26247,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>35</v>
       </c>
@@ -26277,7 +26277,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>35</v>
       </c>
@@ -26306,7 +26306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>35</v>
       </c>
@@ -26336,7 +26336,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>35</v>
       </c>
@@ -26366,7 +26366,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>35</v>
       </c>
@@ -26396,7 +26396,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>35</v>
       </c>
@@ -26426,7 +26426,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>35</v>
       </c>
@@ -26456,7 +26456,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>35</v>
       </c>
@@ -26486,7 +26486,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>35</v>
       </c>
@@ -26516,7 +26516,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>35</v>
       </c>
@@ -26995,7 +26995,7 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>36</v>
       </c>
@@ -27025,7 +27025,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>36</v>
       </c>
@@ -27054,7 +27054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>36</v>
       </c>
@@ -27084,7 +27084,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>36</v>
       </c>
@@ -27114,7 +27114,7 @@
         <v>0.3263888888888889</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>36</v>
       </c>
@@ -27653,7 +27653,7 @@
         <v>0.46527777777777773</v>
       </c>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>37</v>
       </c>
@@ -27683,7 +27683,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>37</v>
       </c>
@@ -27713,7 +27713,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>37</v>
       </c>
@@ -27743,7 +27743,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>37</v>
       </c>
@@ -27773,7 +27773,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>37</v>
       </c>
@@ -27803,7 +27803,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>37</v>
       </c>
@@ -28823,7 +28823,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="951" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>38</v>
       </c>
@@ -28853,7 +28853,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="952" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>38</v>
       </c>
@@ -28883,7 +28883,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="953" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>38</v>
       </c>
@@ -28913,7 +28913,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="954" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>38</v>
       </c>
@@ -28943,7 +28943,7 @@
         <v>0.86458333333333337</v>
       </c>
     </row>
-    <row r="955" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>38</v>
       </c>
@@ -28973,7 +28973,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="956" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>38</v>
       </c>
@@ -29003,7 +29003,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="957" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>38</v>
       </c>
@@ -29032,7 +29032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>38</v>
       </c>
@@ -29062,7 +29062,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="959" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>38</v>
       </c>
@@ -29092,7 +29092,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="960" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>38</v>
       </c>
@@ -29122,7 +29122,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="961" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>38</v>
       </c>
@@ -29152,7 +29152,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="962" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>38</v>
       </c>
@@ -29182,7 +29182,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="963" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>38</v>
       </c>
@@ -29212,7 +29212,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="964" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>38</v>
       </c>
@@ -29242,7 +29242,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="965" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>38</v>
       </c>
@@ -29272,7 +29272,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="966" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>38</v>
       </c>
@@ -29302,7 +29302,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="967" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>38</v>
       </c>
@@ -29332,7 +29332,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="968" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>38</v>
       </c>
@@ -30080,7 +30080,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="993" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>39</v>
       </c>
@@ -30110,7 +30110,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="994" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>39</v>
       </c>
@@ -30140,7 +30140,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="995" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A995">
         <v>39</v>
       </c>
@@ -30170,7 +30170,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="996" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>39</v>
       </c>
@@ -30200,7 +30200,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="997" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997">
         <v>39</v>
       </c>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>39</v>
       </c>
@@ -30259,7 +30259,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="999" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>39</v>
       </c>
@@ -30289,7 +30289,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1000" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>39</v>
       </c>
@@ -30319,7 +30319,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1001" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1001">
         <v>39</v>
       </c>
@@ -30349,7 +30349,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1002" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1002">
         <v>39</v>
       </c>
@@ -30379,7 +30379,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="1003" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1003">
         <v>39</v>
       </c>
@@ -31157,7 +31157,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1029" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1029">
         <v>40</v>
       </c>
@@ -31187,7 +31187,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1030" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1030">
         <v>40</v>
       </c>
@@ -31217,7 +31217,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1031" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1031">
         <v>40</v>
       </c>
@@ -31247,7 +31247,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="1032" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1032">
         <v>40</v>
       </c>
@@ -31277,7 +31277,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1033" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1033">
         <v>40</v>
       </c>
@@ -31307,7 +31307,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1034" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1034">
         <v>40</v>
       </c>
@@ -31337,7 +31337,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1035" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1035">
         <v>40</v>
       </c>
@@ -31367,7 +31367,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1036" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1036">
         <v>40</v>
       </c>
@@ -31397,7 +31397,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1037" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1037">
         <v>40</v>
       </c>
@@ -31427,7 +31427,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1038" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1038">
         <v>40</v>
       </c>
@@ -31456,7 +31456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1039" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1039">
         <v>40</v>
       </c>
@@ -31486,7 +31486,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1040" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1040">
         <v>40</v>
       </c>
@@ -32084,7 +32084,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="1060" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1060">
         <v>41</v>
       </c>
@@ -32114,7 +32114,7 @@
         <v>0.80208333333333337</v>
       </c>
     </row>
-    <row r="1061" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1061">
         <v>41</v>
       </c>
@@ -32144,7 +32144,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1062" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1062">
         <v>41</v>
       </c>
@@ -32174,7 +32174,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="1063" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1063">
         <v>41</v>
       </c>
@@ -33253,7 +33253,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1099" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1099">
         <v>42</v>
       </c>
@@ -33283,7 +33283,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="1100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1100">
         <v>42</v>
       </c>
@@ -33313,7 +33313,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1101">
         <v>42</v>
       </c>
@@ -33343,7 +33343,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="1102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1102">
         <v>42</v>
       </c>
@@ -33372,7 +33372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1103">
         <v>42</v>
       </c>
@@ -33402,7 +33402,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="1104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1104">
         <v>42</v>
       </c>
@@ -33432,7 +33432,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1105">
         <v>42</v>
       </c>
@@ -33462,7 +33462,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1106">
         <v>42</v>
       </c>
@@ -33492,7 +33492,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1107">
         <v>42</v>
       </c>
@@ -33522,7 +33522,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="1108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1108">
         <v>42</v>
       </c>
@@ -34211,7 +34211,7 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="1131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1131">
         <v>43</v>
       </c>
@@ -34241,7 +34241,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1132">
         <v>43</v>
       </c>
@@ -34271,7 +34271,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1133">
         <v>43</v>
       </c>
@@ -34300,7 +34300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1134">
         <v>43</v>
       </c>
@@ -34330,7 +34330,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1135">
         <v>43</v>
       </c>
@@ -34360,7 +34360,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1136">
         <v>43</v>
       </c>
@@ -34748,7 +34748,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1149">
         <v>44</v>
       </c>
@@ -34778,7 +34778,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1150">
         <v>44</v>
       </c>
@@ -34808,7 +34808,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1151">
         <v>44</v>
       </c>
@@ -34838,7 +34838,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1152">
         <v>44</v>
       </c>
@@ -34868,7 +34868,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1153">
         <v>44</v>
       </c>
@@ -35377,7 +35377,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="1170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1170">
         <v>45</v>
       </c>
@@ -35407,7 +35407,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1171">
         <v>45</v>
       </c>
@@ -35437,7 +35437,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="1172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1172">
         <v>45</v>
       </c>
@@ -35467,7 +35467,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1173">
         <v>45</v>
       </c>
@@ -35497,7 +35497,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="1174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1174">
         <v>45</v>
       </c>
@@ -35526,7 +35526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1175">
         <v>45</v>
       </c>
@@ -35556,7 +35556,7 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="1176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1176">
         <v>45</v>
       </c>
@@ -35586,7 +35586,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1177">
         <v>45</v>
       </c>
@@ -35616,7 +35616,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1178">
         <v>45</v>
       </c>
@@ -35646,7 +35646,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1179">
         <v>45</v>
       </c>
@@ -35676,7 +35676,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="1180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1180">
         <v>45</v>
       </c>
@@ -35706,7 +35706,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1181">
         <v>45</v>
       </c>
@@ -37890,7 +37890,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="1254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1254">
         <v>47</v>
       </c>
@@ -37920,7 +37920,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1255">
         <v>47</v>
       </c>
@@ -37950,7 +37950,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="1256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1256">
         <v>47</v>
       </c>
@@ -37980,7 +37980,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1257">
         <v>47</v>
       </c>
@@ -38010,7 +38010,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="1258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1258">
         <v>47</v>
       </c>
@@ -38039,7 +38039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1259">
         <v>47</v>
       </c>
@@ -38069,7 +38069,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="1260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1260">
         <v>47</v>
       </c>
@@ -38099,7 +38099,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1261">
         <v>47</v>
       </c>
@@ -38129,7 +38129,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1262">
         <v>47</v>
       </c>
@@ -38159,7 +38159,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1263">
         <v>47</v>
       </c>
@@ -38189,7 +38189,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="1264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1264">
         <v>47</v>
       </c>
@@ -38219,7 +38219,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1265">
         <v>47</v>
       </c>
@@ -39237,7 +39237,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1299">
         <v>48</v>
       </c>
@@ -39267,7 +39267,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1300">
         <v>48</v>
       </c>
@@ -40106,7 +40106,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="1328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1328">
         <v>49</v>
       </c>
@@ -40136,7 +40136,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1329">
         <v>49</v>
       </c>
@@ -40166,7 +40166,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="1330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1330">
         <v>49</v>
       </c>
@@ -40196,7 +40196,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1331">
         <v>49</v>
       </c>
@@ -40226,7 +40226,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="1332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1332">
         <v>49</v>
       </c>
@@ -40255,7 +40255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1333">
         <v>49</v>
       </c>
@@ -40285,7 +40285,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="1334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1334">
         <v>49</v>
       </c>
@@ -40315,7 +40315,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1335">
         <v>49</v>
       </c>
@@ -40345,7 +40345,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1336">
         <v>49</v>
       </c>
@@ -40375,7 +40375,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1337">
         <v>49</v>
       </c>
@@ -40405,7 +40405,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="1338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1338">
         <v>49</v>
       </c>
@@ -40435,7 +40435,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1339">
         <v>49</v>
       </c>
@@ -41064,7 +41064,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1360">
         <v>50</v>
       </c>
@@ -41094,7 +41094,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1361">
         <v>50</v>
       </c>
@@ -41124,7 +41124,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1362">
         <v>50</v>
       </c>
@@ -41154,7 +41154,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1363">
         <v>50</v>
       </c>
@@ -41753,7 +41753,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="1383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1383">
         <v>51</v>
       </c>
@@ -41783,7 +41783,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1384">
         <v>51</v>
       </c>
@@ -41813,7 +41813,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="1385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1385">
         <v>51</v>
       </c>
@@ -41843,7 +41843,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1386">
         <v>51</v>
       </c>
@@ -41873,7 +41873,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="1387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1387">
         <v>51</v>
       </c>
@@ -41903,7 +41903,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1388">
         <v>51</v>
       </c>
@@ -41933,7 +41933,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="1389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1389">
         <v>51</v>
       </c>
@@ -41962,7 +41962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1390">
         <v>51</v>
       </c>
@@ -41992,7 +41992,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="1391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1391">
         <v>51</v>
       </c>
@@ -42022,7 +42022,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="1392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1392">
         <v>51</v>
       </c>
@@ -42052,7 +42052,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="1393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1393">
         <v>51</v>
       </c>
@@ -42082,7 +42082,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1394">
         <v>51</v>
       </c>
@@ -42650,7 +42650,7 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="1413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1413" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1413">
         <v>52</v>
       </c>
@@ -42680,7 +42680,7 @@
         <v>0.68263888888888891</v>
       </c>
     </row>
-    <row r="1414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1414" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1414">
         <v>52</v>
       </c>
@@ -42710,7 +42710,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="1415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1415">
         <v>52</v>
       </c>
@@ -42740,7 +42740,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1416">
         <v>52</v>
       </c>
@@ -42770,7 +42770,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="1417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1417">
         <v>52</v>
       </c>
@@ -42799,7 +42799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1418">
         <v>52</v>
       </c>
@@ -42829,7 +42829,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="1419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1419">
         <v>52</v>
       </c>
@@ -42859,7 +42859,7 @@
         <v>0.16527777777777777</v>
       </c>
     </row>
-    <row r="1420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1420">
         <v>52</v>
       </c>
@@ -42889,7 +42889,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1421" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1421">
         <v>52</v>
       </c>
@@ -42919,7 +42919,7 @@
         <v>0.36874999999999997</v>
       </c>
     </row>
-    <row r="1422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1422" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1422">
         <v>52</v>
       </c>
@@ -42949,7 +42949,7 @@
         <v>0.44027777777777777</v>
       </c>
     </row>
-    <row r="1423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1423">
         <v>52</v>
       </c>
@@ -43397,7 +43397,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1438" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1438">
         <v>53</v>
       </c>
@@ -43427,7 +43427,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1439" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1439">
         <v>53</v>
       </c>
@@ -43457,7 +43457,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1440" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1440">
         <v>53</v>
       </c>
@@ -43486,7 +43486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1441" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1441">
         <v>53</v>
       </c>
@@ -43516,7 +43516,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1442" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1442">
         <v>53</v>
       </c>
@@ -43546,7 +43546,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1443">
         <v>53</v>
       </c>
@@ -44355,7 +44355,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="1470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1470">
         <v>54</v>
       </c>
@@ -44385,7 +44385,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1471">
         <v>54</v>
       </c>
@@ -44415,7 +44415,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="1472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1472">
         <v>54</v>
       </c>
@@ -44445,7 +44445,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1473">
         <v>54</v>
       </c>
@@ -44475,7 +44475,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="1474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1474">
         <v>54</v>
       </c>
@@ -44505,7 +44505,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="1475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1475">
         <v>54</v>
       </c>
@@ -44534,7 +44534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1476">
         <v>54</v>
       </c>
@@ -44564,7 +44564,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="1477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1477">
         <v>54</v>
       </c>
@@ -44594,7 +44594,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1478" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1478">
         <v>54</v>
       </c>
@@ -44624,7 +44624,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1479" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1479">
         <v>54</v>
       </c>
@@ -44654,7 +44654,7 @@
         <v>0.33055555555555555</v>
       </c>
     </row>
-    <row r="1480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1480" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1480">
         <v>54</v>
       </c>
@@ -44684,7 +44684,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="1481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1481" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1481">
         <v>54</v>
       </c>
@@ -44714,7 +44714,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1482" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1482">
         <v>54</v>
       </c>
@@ -45912,7 +45912,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1522" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1522">
         <v>56</v>
       </c>
@@ -45942,7 +45942,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1523" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1523">
         <v>56</v>
       </c>
@@ -45972,7 +45972,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1524" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1524">
         <v>56</v>
       </c>
@@ -46002,7 +46002,7 @@
         <v>0.31944444444444448</v>
       </c>
     </row>
-    <row r="1525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1525" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1525">
         <v>56</v>
       </c>
@@ -46661,7 +46661,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1547" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1547">
         <v>58</v>
       </c>
@@ -46691,7 +46691,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="1548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1548" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1548">
         <v>58</v>
       </c>
@@ -46721,7 +46721,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1549">
         <v>58</v>
       </c>
@@ -46751,7 +46751,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="1550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1550" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1550">
         <v>58</v>
       </c>
@@ -46781,7 +46781,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1551" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1551">
         <v>58</v>
       </c>
@@ -46811,7 +46811,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="1552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1552">
         <v>58</v>
       </c>
@@ -46840,7 +46840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1553" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1553">
         <v>58</v>
       </c>
@@ -46870,7 +46870,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="1554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1554" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1554">
         <v>58</v>
       </c>
@@ -46900,7 +46900,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1555" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1555">
         <v>58</v>
       </c>
@@ -46930,7 +46930,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1556" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1556">
         <v>58</v>
       </c>
@@ -46960,7 +46960,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1557" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1557">
         <v>58</v>
       </c>
@@ -46990,7 +46990,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="1558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1558" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1558">
         <v>58</v>
       </c>
@@ -47020,7 +47020,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1559" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1559">
         <v>58</v>
       </c>
@@ -47588,7 +47588,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1578">
         <v>59</v>
       </c>
@@ -47618,7 +47618,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1579" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1579">
         <v>59</v>
       </c>
@@ -47648,7 +47648,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1580" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1580">
         <v>59</v>
       </c>
@@ -47677,7 +47677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1581" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1581">
         <v>59</v>
       </c>
@@ -47707,7 +47707,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1582">
         <v>59</v>
       </c>
@@ -48125,7 +48125,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1596" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1596">
         <v>60</v>
       </c>
@@ -48155,7 +48155,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1597" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1597">
         <v>60</v>
       </c>
@@ -48185,7 +48185,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1598" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1598">
         <v>60</v>
       </c>
@@ -48215,7 +48215,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="1599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1599" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1599">
         <v>60</v>
       </c>
@@ -48245,7 +48245,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1600" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1600">
         <v>60</v>
       </c>
@@ -48275,7 +48275,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1601">
         <v>60</v>
       </c>
@@ -48903,7 +48903,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1622" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1622">
         <v>61</v>
       </c>
@@ -48933,7 +48933,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1623" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1623">
         <v>61</v>
       </c>
@@ -48962,7 +48962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1624" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1624">
         <v>61</v>
       </c>
@@ -48992,7 +48992,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="1625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1625" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1625">
         <v>61</v>
       </c>
@@ -49022,7 +49022,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1626" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1626">
         <v>61</v>
       </c>
@@ -49590,7 +49590,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1645" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1645">
         <v>62</v>
       </c>
@@ -49620,7 +49620,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1646" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1646">
         <v>62</v>
       </c>
@@ -49650,7 +49650,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1647" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1647">
         <v>62</v>
       </c>
@@ -49680,7 +49680,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1648" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1648">
         <v>62</v>
       </c>
@@ -49709,7 +49709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1649" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1649">
         <v>62</v>
       </c>
@@ -49739,7 +49739,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1650" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1650">
         <v>62</v>
       </c>
@@ -50069,7 +50069,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1661" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1661">
         <v>63</v>
       </c>
@@ -50099,7 +50099,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1662" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1662">
         <v>63</v>
       </c>
@@ -50129,7 +50129,7 @@
         <v>0.63541666666666663</v>
       </c>
     </row>
-    <row r="1663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1663" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1663">
         <v>63</v>
       </c>
@@ -50159,7 +50159,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1664" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1664">
         <v>63</v>
       </c>
@@ -50189,7 +50189,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1665" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1665">
         <v>63</v>
       </c>
@@ -50908,7 +50908,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1689" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1689">
         <v>64</v>
       </c>
@@ -50938,7 +50938,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="1690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1690" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1690">
         <v>64</v>
       </c>
@@ -50968,7 +50968,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1691" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1691">
         <v>64</v>
       </c>
@@ -50998,7 +50998,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="1692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1692" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1692">
         <v>64</v>
       </c>
@@ -51028,7 +51028,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1693" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1693">
         <v>64</v>
       </c>
@@ -51058,7 +51058,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="1694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1694" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1694">
         <v>64</v>
       </c>
@@ -51087,7 +51087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1695" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1695">
         <v>64</v>
       </c>
@@ -51117,7 +51117,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="1696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1696" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1696">
         <v>64</v>
       </c>
@@ -51147,7 +51147,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1697" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1697">
         <v>64</v>
       </c>
@@ -51177,7 +51177,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1698" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1698">
         <v>64</v>
       </c>
@@ -51207,7 +51207,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1699" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1699">
         <v>64</v>
       </c>
@@ -51985,7 +51985,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1725" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1725" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1725">
         <v>65</v>
       </c>
@@ -52015,7 +52015,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1726" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1726" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1726">
         <v>65</v>
       </c>
@@ -52105,7 +52105,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1729" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1729" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1729">
         <v>66</v>
       </c>
@@ -52135,7 +52135,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="1730" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1730" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1730">
         <v>66</v>
       </c>
@@ -52165,7 +52165,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1731" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1731" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1731">
         <v>66</v>
       </c>
@@ -52195,7 +52195,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="1732" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1732" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1732">
         <v>66</v>
       </c>
@@ -52224,7 +52224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1733" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1733" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1733">
         <v>66</v>
       </c>
@@ -52254,7 +52254,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="1734" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1734" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1734">
         <v>66</v>
       </c>
@@ -52284,7 +52284,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1735" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1735" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1735">
         <v>66</v>
       </c>
@@ -52314,7 +52314,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1736" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1736" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1736">
         <v>66</v>
       </c>
@@ -52344,7 +52344,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1737" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1737" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1737">
         <v>66</v>
       </c>
@@ -52374,7 +52374,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="1738" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1738" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1738">
         <v>66</v>
       </c>
@@ -52972,7 +52972,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="1758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1758" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1758">
         <v>67</v>
       </c>
@@ -53002,7 +53002,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1759" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1759">
         <v>67</v>
       </c>
@@ -53032,7 +53032,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="1760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1760" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1760">
         <v>67</v>
       </c>
@@ -53062,7 +53062,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="1761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1761" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1761">
         <v>67</v>
       </c>
@@ -53362,7 +53362,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1771" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1771">
         <v>68</v>
       </c>
@@ -53392,7 +53392,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1772" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1772">
         <v>68</v>
       </c>
@@ -53422,7 +53422,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1773" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1773">
         <v>68</v>
       </c>
@@ -53452,7 +53452,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1774" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1774">
         <v>68</v>
       </c>
@@ -53872,7 +53872,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="1788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1788" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1788">
         <v>69</v>
       </c>
@@ -53902,7 +53902,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1789" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1789" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1789">
         <v>69</v>
       </c>
@@ -54590,7 +54590,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1812" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1812" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1812">
         <v>70</v>
       </c>
@@ -54620,7 +54620,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1813" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1813" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1813">
         <v>70</v>
       </c>
@@ -54649,7 +54649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1814" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1814" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1814">
         <v>70</v>
       </c>
@@ -54679,7 +54679,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="1815" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1815" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1815">
         <v>70</v>
       </c>
@@ -54709,7 +54709,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="1816" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1816" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1816">
         <v>70</v>
       </c>
@@ -54739,7 +54739,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1817" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1817" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1817">
         <v>70</v>
       </c>
@@ -55367,7 +55367,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="1838" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1838" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1838">
         <v>71</v>
       </c>
@@ -55397,7 +55397,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="1839" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1839" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1839">
         <v>71</v>
       </c>
@@ -55427,7 +55427,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="1840" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1840" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1840">
         <v>71</v>
       </c>
@@ -55457,7 +55457,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="1841" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1841" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1841">
         <v>71</v>
       </c>
@@ -55487,7 +55487,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="1842" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1842" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1842">
         <v>71</v>
       </c>
@@ -55517,7 +55517,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1843" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1843" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1843">
         <v>71</v>
       </c>
@@ -55696,7 +55696,7 @@
         <v>0.32847222222222222</v>
       </c>
     </row>
-    <row r="1849" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1849" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1849">
         <v>72</v>
       </c>
@@ -55726,7 +55726,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="1850" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1850" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1850">
         <v>72</v>
       </c>
@@ -55908,6 +55908,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I1855" xr:uid="{40BD2AD2-388F-4AD1-9F1A-7500B89E5A38}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="46"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="7">
       <filters>
         <filter val="1"/>
